--- a/demo_patrick/sheeeeet.xlsx
+++ b/demo_patrick/sheeeeet.xlsx
@@ -10,13 +10,12 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -353,403 +352,340 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P18"/>
+  <dimension ref="F1:P18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:J18"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1">
-        <v>0</v>
-      </c>
-      <c r="B1">
-        <v>-90</v>
-      </c>
+    <row r="1" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F1">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="G1">
-        <v>-90</v>
+        <v>0</v>
       </c>
       <c r="I1">
         <f>SUM(F1+$L1)</f>
-        <v>4.2</v>
+        <v>8.5</v>
       </c>
       <c r="J1">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="L1">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="P1">
         <f>SUM(66.55-64.57)</f>
         <v>1.980000000000004</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>62.02</v>
-      </c>
-      <c r="B2">
-        <v>-90</v>
-      </c>
+    <row r="2" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F2">
-        <v>62.02</v>
+        <v>65.48</v>
       </c>
       <c r="G2">
-        <v>-90</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <f t="shared" ref="I2:I18" si="0">SUM(F2+$L2)</f>
+        <v>69.78</v>
+      </c>
+      <c r="J2">
+        <v>90</v>
+      </c>
+      <c r="L2">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="3" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F3">
+        <v>65.59</v>
+      </c>
+      <c r="G3">
+        <v>-90</v>
+      </c>
+      <c r="I3">
+        <f t="shared" si="0"/>
+        <v>69.89</v>
+      </c>
+      <c r="J3">
+        <v>-270</v>
+      </c>
+      <c r="L3">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="4" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F4">
         <v>66.22</v>
       </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>4.2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>62.2</v>
-      </c>
-      <c r="B3">
-        <v>-270</v>
-      </c>
-      <c r="F3">
-        <v>62.2</v>
-      </c>
-      <c r="G3">
-        <v>-270</v>
-      </c>
-      <c r="I3">
-        <f t="shared" si="0"/>
+      <c r="G4">
+        <v>-90</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="0"/>
+        <v>70.52</v>
+      </c>
+      <c r="J4">
+        <v>-270</v>
+      </c>
+      <c r="L4">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="5" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F5">
         <v>66.400000000000006</v>
       </c>
-      <c r="J3">
-        <v>-270</v>
-      </c>
-      <c r="L3">
-        <v>4.2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>62.24</v>
-      </c>
-      <c r="B4">
-        <v>-270</v>
-      </c>
-      <c r="F4">
-        <v>62.24</v>
-      </c>
-      <c r="G4">
-        <v>-270</v>
-      </c>
-      <c r="I4">
-        <f t="shared" si="0"/>
+      <c r="G5">
+        <v>-270</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="0"/>
+        <v>70.7</v>
+      </c>
+      <c r="J5">
+        <v>-90</v>
+      </c>
+      <c r="L5">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="6" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F6">
         <v>66.44</v>
       </c>
-      <c r="J4">
-        <v>-270</v>
-      </c>
-      <c r="L4">
-        <v>4.2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>62.36</v>
-      </c>
-      <c r="B5">
-        <v>-90</v>
-      </c>
-      <c r="F5">
-        <v>62.36</v>
-      </c>
-      <c r="G5">
-        <v>-90</v>
-      </c>
-      <c r="I5">
-        <f t="shared" si="0"/>
-        <v>66.56</v>
-      </c>
-      <c r="J5">
-        <v>-90</v>
-      </c>
-      <c r="L5">
-        <v>4.2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>63.315600000000003</v>
-      </c>
-      <c r="B6">
-        <v>-90</v>
-      </c>
-      <c r="F6">
-        <v>63.315600000000003</v>
-      </c>
       <c r="G6">
-        <v>-90</v>
+        <v>-270</v>
       </c>
       <c r="I6">
         <f t="shared" si="0"/>
+        <v>70.739999999999995</v>
+      </c>
+      <c r="J6">
+        <v>-90</v>
+      </c>
+      <c r="L6">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="7" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F7">
+        <v>66.69</v>
+      </c>
+      <c r="G7">
+        <v>-90</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="0"/>
+        <v>70.989999999999995</v>
+      </c>
+      <c r="J7">
+        <v>90</v>
+      </c>
+      <c r="L7">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="8" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F8">
         <v>67.515600000000006</v>
       </c>
-      <c r="J6">
-        <v>-90</v>
-      </c>
-      <c r="L6">
-        <v>4.2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>62.2</v>
-      </c>
-      <c r="B7">
-        <v>-270</v>
-      </c>
-      <c r="F7">
-        <f>SUM(62.2+1.2956)</f>
-        <v>63.495600000000003</v>
-      </c>
-      <c r="G7">
-        <v>90</v>
-      </c>
-      <c r="I7">
-        <f t="shared" si="0"/>
+      <c r="G8">
+        <v>-90</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="0"/>
+        <v>71.815600000000003</v>
+      </c>
+      <c r="J8">
+        <v>90</v>
+      </c>
+      <c r="L8">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="9" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F9">
         <v>67.695599999999999</v>
       </c>
-      <c r="J7">
-        <v>90</v>
-      </c>
-      <c r="L7">
-        <v>4.2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>62.24</v>
-      </c>
-      <c r="B8">
-        <v>-270</v>
-      </c>
-      <c r="F8">
-        <f>SUM(62.24+1.2956)</f>
-        <v>63.535600000000002</v>
-      </c>
-      <c r="G8">
-        <v>90</v>
-      </c>
-      <c r="I8">
-        <f t="shared" si="0"/>
+      <c r="G9">
+        <v>90</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="0"/>
+        <v>71.995599999999996</v>
+      </c>
+      <c r="J9">
+        <v>-90</v>
+      </c>
+      <c r="L9">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="10" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F10">
         <v>67.735600000000005</v>
       </c>
-      <c r="J8">
-        <v>90</v>
-      </c>
-      <c r="L8">
-        <v>4.2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>62.36</v>
-      </c>
-      <c r="B9">
-        <v>-90</v>
-      </c>
-      <c r="F9">
-        <f>SUM(62.36+1.2956)</f>
-        <v>63.6556</v>
-      </c>
-      <c r="G9">
-        <v>-90</v>
-      </c>
-      <c r="I9">
-        <f t="shared" si="0"/>
+      <c r="G10">
+        <v>90</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="0"/>
+        <v>72.035600000000002</v>
+      </c>
+      <c r="J10">
+        <v>-90</v>
+      </c>
+      <c r="L10">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="11" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F11">
         <v>67.855599999999995</v>
       </c>
-      <c r="J9">
-        <v>-90</v>
-      </c>
-      <c r="L9">
-        <v>4.2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>100</v>
-      </c>
-      <c r="B10">
-        <v>-90</v>
-      </c>
-      <c r="F10">
-        <v>63.755600000000001</v>
-      </c>
-      <c r="G10">
-        <v>-90</v>
-      </c>
-      <c r="I10">
-        <f t="shared" si="0"/>
+      <c r="G11">
+        <v>-90</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="0"/>
+        <v>72.155599999999993</v>
+      </c>
+      <c r="J11">
+        <v>-270</v>
+      </c>
+      <c r="L11">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="12" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F12">
         <v>67.955600000000004</v>
       </c>
-      <c r="J10">
-        <v>-90</v>
-      </c>
-      <c r="L10">
-        <v>4.2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="F11">
-        <v>63.955599999999997</v>
-      </c>
-      <c r="G11">
-        <v>-270</v>
-      </c>
-      <c r="I11">
-        <f t="shared" si="0"/>
-        <v>68.155599999999993</v>
-      </c>
-      <c r="J11">
-        <v>-270</v>
-      </c>
-      <c r="L11">
-        <v>4.2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="F12">
-        <v>64</v>
-      </c>
       <c r="G12">
-        <v>-270</v>
+        <v>-90</v>
       </c>
       <c r="I12">
         <f t="shared" si="0"/>
+        <v>72.255600000000001</v>
+      </c>
+      <c r="J12">
+        <v>-270</v>
+      </c>
+      <c r="L12">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="13" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F13">
+        <v>68.155600000000007</v>
+      </c>
+      <c r="G13">
+        <v>-270</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="0"/>
+        <v>72.455600000000004</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="14" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F14">
         <v>68.2</v>
       </c>
-      <c r="J12">
-        <v>-270</v>
-      </c>
-      <c r="L12">
-        <v>4.2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="F13">
-        <v>64.12</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <f t="shared" si="0"/>
-        <v>68.320000000000007</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="L13">
-        <v>4.2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="F14">
-        <v>64.22</v>
-      </c>
       <c r="G14">
-        <v>-90</v>
+        <v>-270</v>
       </c>
       <c r="I14">
         <f t="shared" si="0"/>
+        <v>72.5</v>
+      </c>
+      <c r="J14">
+        <v>-90</v>
+      </c>
+      <c r="L14">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="15" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F15">
+        <v>68.319999999999993</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="0"/>
+        <v>72.61999999999999</v>
+      </c>
+      <c r="J15">
+        <v>90</v>
+      </c>
+      <c r="L15">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="16" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F16">
         <v>68.42</v>
       </c>
-      <c r="J14">
-        <v>-90</v>
-      </c>
-      <c r="L14">
-        <v>4.2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="F15">
-        <v>64.42</v>
-      </c>
-      <c r="G15">
-        <v>90</v>
-      </c>
-      <c r="I15">
-        <f t="shared" si="0"/>
-        <v>68.62</v>
-      </c>
-      <c r="J15">
-        <v>90</v>
-      </c>
-      <c r="L15">
-        <v>4.2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="F16">
-        <v>64.47</v>
-      </c>
       <c r="G16">
-        <v>90</v>
+        <v>-90</v>
       </c>
       <c r="I16">
         <f t="shared" si="0"/>
-        <v>68.67</v>
+        <v>72.72</v>
       </c>
       <c r="J16">
         <v>90</v>
       </c>
       <c r="L16">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="17" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F17">
-        <v>64.569999999999993</v>
+        <v>68.62</v>
       </c>
       <c r="G17">
-        <v>-90</v>
+        <v>90</v>
       </c>
       <c r="I17">
         <f t="shared" si="0"/>
-        <v>68.77</v>
+        <v>72.92</v>
       </c>
       <c r="J17">
         <v>-90</v>
       </c>
       <c r="L17">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="18" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F18">
-        <v>100</v>
+        <v>68.67</v>
       </c>
       <c r="G18">
-        <v>-90</v>
+        <v>90</v>
       </c>
       <c r="I18">
         <f t="shared" si="0"/>
-        <v>104.2</v>
+        <v>72.97</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
     </row>
   </sheetData>
@@ -771,6 +707,1221 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L38"/>
+  <sheetViews>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>4.2</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="F1">
+        <v>4.2</v>
+      </c>
+      <c r="G1">
+        <v>0</v>
+      </c>
+      <c r="I1">
+        <f>SUM(F1+$L1)</f>
+        <v>8.5</v>
+      </c>
+      <c r="J1">
+        <v>90</v>
+      </c>
+      <c r="L1">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>65.48</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>65.48</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>69.78</v>
+      </c>
+      <c r="J2">
+        <v>90</v>
+      </c>
+      <c r="L2">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>65.59</v>
+      </c>
+      <c r="B3">
+        <v>-90</v>
+      </c>
+      <c r="F3">
+        <v>65.59</v>
+      </c>
+      <c r="G3">
+        <v>-90</v>
+      </c>
+      <c r="I3">
+        <v>69.89</v>
+      </c>
+      <c r="J3">
+        <v>-270</v>
+      </c>
+      <c r="L3">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>66.22</v>
+      </c>
+      <c r="B4">
+        <v>-90</v>
+      </c>
+      <c r="F4">
+        <v>66.22</v>
+      </c>
+      <c r="G4">
+        <v>-90</v>
+      </c>
+      <c r="I4">
+        <v>70.52</v>
+      </c>
+      <c r="J4">
+        <v>-270</v>
+      </c>
+      <c r="L4">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>66.400000000000006</v>
+      </c>
+      <c r="B5">
+        <v>-270</v>
+      </c>
+      <c r="F5">
+        <v>66.400000000000006</v>
+      </c>
+      <c r="G5">
+        <v>-270</v>
+      </c>
+      <c r="I5">
+        <v>70.7</v>
+      </c>
+      <c r="J5">
+        <v>-90</v>
+      </c>
+      <c r="L5">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>66.44</v>
+      </c>
+      <c r="B6">
+        <v>-270</v>
+      </c>
+      <c r="F6">
+        <v>66.44</v>
+      </c>
+      <c r="G6">
+        <v>-270</v>
+      </c>
+      <c r="I6">
+        <v>70.739999999999995</v>
+      </c>
+      <c r="J6">
+        <v>-90</v>
+      </c>
+      <c r="L6">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>66.69</v>
+      </c>
+      <c r="B7">
+        <v>-90</v>
+      </c>
+      <c r="F7">
+        <v>66.69</v>
+      </c>
+      <c r="G7">
+        <v>-90</v>
+      </c>
+      <c r="I7">
+        <v>70.989999999999995</v>
+      </c>
+      <c r="J7">
+        <v>90</v>
+      </c>
+      <c r="L7">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>67.515600000000006</v>
+      </c>
+      <c r="B8">
+        <v>-90</v>
+      </c>
+      <c r="F8">
+        <v>67.515600000000006</v>
+      </c>
+      <c r="G8">
+        <v>-90</v>
+      </c>
+      <c r="I8">
+        <v>71.815600000000003</v>
+      </c>
+      <c r="J8">
+        <v>90</v>
+      </c>
+      <c r="L8">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>67.695599999999999</v>
+      </c>
+      <c r="B9">
+        <v>90</v>
+      </c>
+      <c r="F9">
+        <v>67.695599999999999</v>
+      </c>
+      <c r="G9">
+        <v>90</v>
+      </c>
+      <c r="I9">
+        <v>71.995599999999996</v>
+      </c>
+      <c r="J9">
+        <v>-90</v>
+      </c>
+      <c r="L9">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>67.735600000000005</v>
+      </c>
+      <c r="B10">
+        <v>90</v>
+      </c>
+      <c r="F10">
+        <v>67.735600000000005</v>
+      </c>
+      <c r="G10">
+        <v>90</v>
+      </c>
+      <c r="I10">
+        <v>72.035600000000002</v>
+      </c>
+      <c r="J10">
+        <v>-90</v>
+      </c>
+      <c r="L10">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>67.855599999999995</v>
+      </c>
+      <c r="B11">
+        <v>-90</v>
+      </c>
+      <c r="F11">
+        <v>67.855599999999995</v>
+      </c>
+      <c r="G11">
+        <v>-90</v>
+      </c>
+      <c r="I11">
+        <v>72.155599999999993</v>
+      </c>
+      <c r="J11">
+        <v>-270</v>
+      </c>
+      <c r="L11">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>67.955600000000004</v>
+      </c>
+      <c r="B12">
+        <v>-90</v>
+      </c>
+      <c r="F12">
+        <v>67.955600000000004</v>
+      </c>
+      <c r="G12">
+        <v>-90</v>
+      </c>
+      <c r="I12">
+        <v>72.255600000000001</v>
+      </c>
+      <c r="J12">
+        <v>-270</v>
+      </c>
+      <c r="L12">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>68.155600000000007</v>
+      </c>
+      <c r="B13">
+        <v>-270</v>
+      </c>
+      <c r="F13">
+        <v>68.155600000000007</v>
+      </c>
+      <c r="G13">
+        <v>-270</v>
+      </c>
+      <c r="I13">
+        <v>72.455600000000004</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>68.2</v>
+      </c>
+      <c r="B14">
+        <v>-270</v>
+      </c>
+      <c r="F14">
+        <v>68.2</v>
+      </c>
+      <c r="G14">
+        <v>-270</v>
+      </c>
+      <c r="I14">
+        <v>72.5</v>
+      </c>
+      <c r="J14">
+        <v>-90</v>
+      </c>
+      <c r="L14">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>68.319999999999993</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>68.319999999999993</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>72.61999999999999</v>
+      </c>
+      <c r="J15">
+        <v>90</v>
+      </c>
+      <c r="L15">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>68.42</v>
+      </c>
+      <c r="B16">
+        <v>-90</v>
+      </c>
+      <c r="F16">
+        <v>68.42</v>
+      </c>
+      <c r="G16">
+        <v>-90</v>
+      </c>
+      <c r="I16">
+        <v>72.72</v>
+      </c>
+      <c r="J16">
+        <v>90</v>
+      </c>
+      <c r="L16">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>68.62</v>
+      </c>
+      <c r="B17">
+        <v>90</v>
+      </c>
+      <c r="F17">
+        <v>68.62</v>
+      </c>
+      <c r="G17">
+        <v>90</v>
+      </c>
+      <c r="I17">
+        <v>72.92</v>
+      </c>
+      <c r="J17">
+        <v>-90</v>
+      </c>
+      <c r="L17">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>68.67</v>
+      </c>
+      <c r="B18">
+        <v>90</v>
+      </c>
+      <c r="F18">
+        <v>68.67</v>
+      </c>
+      <c r="G18">
+        <v>90</v>
+      </c>
+      <c r="I18">
+        <v>72.97</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>68.77</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>68.77</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>73.069999999999993</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>69.78</v>
+      </c>
+      <c r="B20">
+        <v>90</v>
+      </c>
+      <c r="F20">
+        <v>104.2</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>108.5</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>69.89</v>
+      </c>
+      <c r="B21">
+        <v>-270</v>
+      </c>
+      <c r="L21">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>70.52</v>
+      </c>
+      <c r="B22">
+        <v>-270</v>
+      </c>
+      <c r="L22">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>70.7</v>
+      </c>
+      <c r="B23">
+        <v>-90</v>
+      </c>
+      <c r="L23">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>70.739999999999995</v>
+      </c>
+      <c r="B24">
+        <v>-90</v>
+      </c>
+      <c r="L24">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>70.989999999999995</v>
+      </c>
+      <c r="B25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>71.815600000000003</v>
+      </c>
+      <c r="B26">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>71.995599999999996</v>
+      </c>
+      <c r="B27">
+        <v>-90</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>72.035600000000002</v>
+      </c>
+      <c r="B28">
+        <v>-90</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>72.155599999999993</v>
+      </c>
+      <c r="B29">
+        <v>-270</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>72.255600000000001</v>
+      </c>
+      <c r="B30">
+        <v>-270</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>72.455600000000004</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>72.5</v>
+      </c>
+      <c r="B32">
+        <v>-90</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>72.61999999999999</v>
+      </c>
+      <c r="B33">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>72.72</v>
+      </c>
+      <c r="B34">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>72.92</v>
+      </c>
+      <c r="B35">
+        <v>-90</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>72.97</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>73.069999999999993</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>108.5</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>8.5</v>
+      </c>
+      <c r="B1">
+        <v>90</v>
+      </c>
+      <c r="F1">
+        <v>8.5</v>
+      </c>
+      <c r="G1">
+        <v>90</v>
+      </c>
+      <c r="I1">
+        <f>SUM(F1-$L1)</f>
+        <v>4.2</v>
+      </c>
+      <c r="J1">
+        <v>90</v>
+      </c>
+      <c r="L1">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>69.78</v>
+      </c>
+      <c r="B2">
+        <v>90</v>
+      </c>
+      <c r="F2">
+        <v>69.78</v>
+      </c>
+      <c r="G2">
+        <v>90</v>
+      </c>
+      <c r="I2">
+        <f t="shared" ref="I2:I18" si="0">SUM(F2-$L2)</f>
+        <v>65.48</v>
+      </c>
+      <c r="J2">
+        <v>90</v>
+      </c>
+      <c r="L2">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>69.89</v>
+      </c>
+      <c r="B3">
+        <v>-270</v>
+      </c>
+      <c r="F3">
+        <v>69.89</v>
+      </c>
+      <c r="G3">
+        <v>-270</v>
+      </c>
+      <c r="I3">
+        <f t="shared" si="0"/>
+        <v>65.59</v>
+      </c>
+      <c r="J3">
+        <v>-270</v>
+      </c>
+      <c r="L3">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>70.52</v>
+      </c>
+      <c r="B4">
+        <v>-270</v>
+      </c>
+      <c r="F4">
+        <v>70.52</v>
+      </c>
+      <c r="G4">
+        <v>-270</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="0"/>
+        <v>66.22</v>
+      </c>
+      <c r="J4">
+        <v>-270</v>
+      </c>
+      <c r="L4">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>70.7</v>
+      </c>
+      <c r="B5">
+        <v>-90</v>
+      </c>
+      <c r="F5">
+        <v>70.7</v>
+      </c>
+      <c r="G5">
+        <v>-90</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="0"/>
+        <v>66.400000000000006</v>
+      </c>
+      <c r="J5">
+        <v>-90</v>
+      </c>
+      <c r="L5">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>70.739999999999995</v>
+      </c>
+      <c r="B6">
+        <v>-90</v>
+      </c>
+      <c r="F6">
+        <v>70.739999999999995</v>
+      </c>
+      <c r="G6">
+        <v>-90</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="0"/>
+        <v>66.44</v>
+      </c>
+      <c r="J6">
+        <v>-90</v>
+      </c>
+      <c r="L6">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>70.989999999999995</v>
+      </c>
+      <c r="B7">
+        <v>90</v>
+      </c>
+      <c r="F7">
+        <v>70.989999999999995</v>
+      </c>
+      <c r="G7">
+        <v>90</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="0"/>
+        <v>66.69</v>
+      </c>
+      <c r="J7">
+        <v>90</v>
+      </c>
+      <c r="L7">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>71.815600000000003</v>
+      </c>
+      <c r="B8">
+        <v>90</v>
+      </c>
+      <c r="F8">
+        <v>71.815600000000003</v>
+      </c>
+      <c r="G8">
+        <v>90</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="0"/>
+        <v>67.515600000000006</v>
+      </c>
+      <c r="J8">
+        <v>90</v>
+      </c>
+      <c r="L8">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>71.995599999999996</v>
+      </c>
+      <c r="B9">
+        <v>-90</v>
+      </c>
+      <c r="F9">
+        <v>71.995599999999996</v>
+      </c>
+      <c r="G9">
+        <v>-90</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="0"/>
+        <v>67.695599999999999</v>
+      </c>
+      <c r="J9">
+        <v>-90</v>
+      </c>
+      <c r="L9">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>72.035600000000002</v>
+      </c>
+      <c r="B10">
+        <v>-90</v>
+      </c>
+      <c r="F10">
+        <v>72.035600000000002</v>
+      </c>
+      <c r="G10">
+        <v>-90</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="0"/>
+        <v>67.735600000000005</v>
+      </c>
+      <c r="J10">
+        <v>-90</v>
+      </c>
+      <c r="L10">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>72.155600000000007</v>
+      </c>
+      <c r="B11">
+        <v>-270</v>
+      </c>
+      <c r="F11">
+        <v>72.155600000000007</v>
+      </c>
+      <c r="G11">
+        <v>-270</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="0"/>
+        <v>67.85560000000001</v>
+      </c>
+      <c r="J11">
+        <v>-270</v>
+      </c>
+      <c r="L11">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>72.255600000000001</v>
+      </c>
+      <c r="B12">
+        <v>-270</v>
+      </c>
+      <c r="F12">
+        <v>72.255600000000001</v>
+      </c>
+      <c r="G12">
+        <v>-270</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="0"/>
+        <v>67.955600000000004</v>
+      </c>
+      <c r="J12">
+        <v>-270</v>
+      </c>
+      <c r="L12">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>72.455600000000004</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>72.455600000000004</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="0"/>
+        <v>68.155600000000007</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>72.5</v>
+      </c>
+      <c r="B14">
+        <v>-90</v>
+      </c>
+      <c r="F14">
+        <v>72.5</v>
+      </c>
+      <c r="G14">
+        <v>-90</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="0"/>
+        <v>68.2</v>
+      </c>
+      <c r="J14">
+        <v>-90</v>
+      </c>
+      <c r="L14">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>72.62</v>
+      </c>
+      <c r="B15">
+        <v>90</v>
+      </c>
+      <c r="F15">
+        <v>72.62</v>
+      </c>
+      <c r="G15">
+        <v>90</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="0"/>
+        <v>68.320000000000007</v>
+      </c>
+      <c r="J15">
+        <v>90</v>
+      </c>
+      <c r="L15">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>72.72</v>
+      </c>
+      <c r="B16">
+        <v>90</v>
+      </c>
+      <c r="F16">
+        <v>72.72</v>
+      </c>
+      <c r="G16">
+        <v>90</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="0"/>
+        <v>68.42</v>
+      </c>
+      <c r="J16">
+        <v>90</v>
+      </c>
+      <c r="L16">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>72.92</v>
+      </c>
+      <c r="B17">
+        <v>-90</v>
+      </c>
+      <c r="F17">
+        <v>72.92</v>
+      </c>
+      <c r="G17">
+        <v>-90</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="0"/>
+        <v>68.62</v>
+      </c>
+      <c r="J17">
+        <v>-90</v>
+      </c>
+      <c r="L17">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>72.97</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>72.97</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="0"/>
+        <v>68.67</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>74.08</v>
+      </c>
+      <c r="B19">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>74.19</v>
+      </c>
+      <c r="B20">
+        <v>-270</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>74.819999999999993</v>
+      </c>
+      <c r="B21">
+        <v>-270</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>75</v>
+      </c>
+      <c r="B22">
+        <v>-90</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>75.039999999999992</v>
+      </c>
+      <c r="B23">
+        <v>-90</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>75.289999999999992</v>
+      </c>
+      <c r="B24">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>76.115600000000001</v>
+      </c>
+      <c r="B25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>76.295599999999993</v>
+      </c>
+      <c r="B26">
+        <v>-90</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>76.335599999999999</v>
+      </c>
+      <c r="B27">
+        <v>-90</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>76.455600000000004</v>
+      </c>
+      <c r="B28">
+        <v>-270</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>76.555599999999998</v>
+      </c>
+      <c r="B29">
+        <v>-270</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>76.755600000000001</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>76.8</v>
+      </c>
+      <c r="B31">
+        <v>-90</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>76.92</v>
+      </c>
+      <c r="B32">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>77.02</v>
+      </c>
+      <c r="B33">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>77.22</v>
+      </c>
+      <c r="B34">
+        <v>-90</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>77.27</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -779,4 +1930,163 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C1:D18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:D18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1">
+        <v>8.5</v>
+      </c>
+      <c r="D1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C2">
+        <v>69.78</v>
+      </c>
+      <c r="D2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C3">
+        <v>69.89</v>
+      </c>
+      <c r="D3">
+        <v>-270</v>
+      </c>
+    </row>
+    <row r="4" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C4">
+        <v>70.52</v>
+      </c>
+      <c r="D4">
+        <v>-270</v>
+      </c>
+    </row>
+    <row r="5" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C5">
+        <v>70.7</v>
+      </c>
+      <c r="D5">
+        <v>-90</v>
+      </c>
+    </row>
+    <row r="6" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C6">
+        <v>70.739999999999995</v>
+      </c>
+      <c r="D6">
+        <v>-90</v>
+      </c>
+    </row>
+    <row r="7" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C7">
+        <v>70.989999999999995</v>
+      </c>
+      <c r="D7">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C8">
+        <v>71.815600000000003</v>
+      </c>
+      <c r="D8">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C9">
+        <v>71.995599999999996</v>
+      </c>
+      <c r="D9">
+        <v>-90</v>
+      </c>
+    </row>
+    <row r="10" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C10">
+        <v>72.035600000000002</v>
+      </c>
+      <c r="D10">
+        <v>-90</v>
+      </c>
+    </row>
+    <row r="11" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C11">
+        <v>72.155600000000007</v>
+      </c>
+      <c r="D11">
+        <v>-270</v>
+      </c>
+    </row>
+    <row r="12" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C12">
+        <v>72.255600000000001</v>
+      </c>
+      <c r="D12">
+        <v>-270</v>
+      </c>
+    </row>
+    <row r="13" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C13">
+        <v>72.455600000000004</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C14">
+        <v>72.5</v>
+      </c>
+      <c r="D14">
+        <v>-90</v>
+      </c>
+    </row>
+    <row r="15" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C15">
+        <v>72.62</v>
+      </c>
+      <c r="D15">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="16" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C16">
+        <v>72.72</v>
+      </c>
+      <c r="D16">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C17">
+        <v>72.92</v>
+      </c>
+      <c r="D17">
+        <v>-90</v>
+      </c>
+    </row>
+    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C18">
+        <v>72.97</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/demo_patrick/sheeeeet.xlsx
+++ b/demo_patrick/sheeeeet.xlsx
@@ -49,7 +49,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -355,27 +357,27 @@
   <dimension ref="F1:P18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="I1" sqref="I1:J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="6:16" x14ac:dyDescent="0.25">
-      <c r="F1">
-        <v>4.2</v>
-      </c>
-      <c r="G1">
-        <v>0</v>
+      <c r="F1" s="2">
+        <v>77.27</v>
+      </c>
+      <c r="G1" s="2">
+        <v>-90</v>
       </c>
       <c r="I1">
         <f>SUM(F1+$L1)</f>
-        <v>8.5</v>
+        <v>81.67</v>
       </c>
       <c r="J1">
         <v>90</v>
       </c>
       <c r="L1">
-        <v>4.3</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="P1">
         <f>SUM(66.55-64.57)</f>
@@ -383,309 +385,309 @@
       </c>
     </row>
     <row r="2" spans="6:16" x14ac:dyDescent="0.25">
-      <c r="F2">
-        <v>65.48</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
+      <c r="F2" s="2">
+        <v>78.38</v>
+      </c>
+      <c r="G2" s="2">
+        <v>-90</v>
       </c>
       <c r="I2">
         <f t="shared" ref="I2:I18" si="0">SUM(F2+$L2)</f>
-        <v>69.78</v>
+        <v>82.78</v>
       </c>
       <c r="J2">
         <v>90</v>
       </c>
-      <c r="L2">
-        <v>4.3</v>
+      <c r="L2" s="2">
+        <v>4.4000000000000004</v>
       </c>
     </row>
     <row r="3" spans="6:16" x14ac:dyDescent="0.25">
-      <c r="F3">
-        <v>65.59</v>
-      </c>
-      <c r="G3">
-        <v>-90</v>
+      <c r="F3" s="2">
+        <v>78.489999999999995</v>
+      </c>
+      <c r="G3" s="2">
+        <v>-270</v>
       </c>
       <c r="I3">
         <f t="shared" si="0"/>
-        <v>69.89</v>
+        <v>82.89</v>
       </c>
       <c r="J3">
         <v>-270</v>
       </c>
-      <c r="L3">
-        <v>4.3</v>
+      <c r="L3" s="2">
+        <v>4.4000000000000004</v>
       </c>
     </row>
     <row r="4" spans="6:16" x14ac:dyDescent="0.25">
-      <c r="F4">
-        <v>66.22</v>
-      </c>
-      <c r="G4">
-        <v>-90</v>
+      <c r="F4" s="2">
+        <v>79.12</v>
+      </c>
+      <c r="G4" s="2">
+        <v>-270</v>
       </c>
       <c r="I4">
         <f t="shared" si="0"/>
-        <v>70.52</v>
+        <v>83.52000000000001</v>
       </c>
       <c r="J4">
         <v>-270</v>
       </c>
-      <c r="L4">
-        <v>4.3</v>
+      <c r="L4" s="2">
+        <v>4.4000000000000004</v>
       </c>
     </row>
     <row r="5" spans="6:16" x14ac:dyDescent="0.25">
-      <c r="F5">
-        <v>66.400000000000006</v>
-      </c>
-      <c r="G5">
-        <v>-270</v>
+      <c r="F5" s="2">
+        <v>79.3</v>
+      </c>
+      <c r="G5" s="2">
+        <v>-90</v>
       </c>
       <c r="I5">
         <f t="shared" si="0"/>
-        <v>70.7</v>
+        <v>83.7</v>
       </c>
       <c r="J5">
         <v>-90</v>
       </c>
-      <c r="L5">
-        <v>4.3</v>
+      <c r="L5" s="2">
+        <v>4.4000000000000004</v>
       </c>
     </row>
     <row r="6" spans="6:16" x14ac:dyDescent="0.25">
-      <c r="F6">
-        <v>66.44</v>
-      </c>
-      <c r="G6">
-        <v>-270</v>
+      <c r="F6" s="2">
+        <v>79.34</v>
+      </c>
+      <c r="G6" s="2">
+        <v>-90</v>
       </c>
       <c r="I6">
         <f t="shared" si="0"/>
-        <v>70.739999999999995</v>
+        <v>83.740000000000009</v>
       </c>
       <c r="J6">
         <v>-90</v>
       </c>
-      <c r="L6">
-        <v>4.3</v>
+      <c r="L6" s="2">
+        <v>4.4000000000000004</v>
       </c>
     </row>
     <row r="7" spans="6:16" x14ac:dyDescent="0.25">
-      <c r="F7">
-        <v>66.69</v>
-      </c>
-      <c r="G7">
-        <v>-90</v>
+      <c r="F7" s="2">
+        <v>79.59</v>
+      </c>
+      <c r="G7" s="2">
+        <v>90</v>
       </c>
       <c r="I7">
         <f t="shared" si="0"/>
-        <v>70.989999999999995</v>
+        <v>83.990000000000009</v>
       </c>
       <c r="J7">
         <v>90</v>
       </c>
-      <c r="L7">
-        <v>4.3</v>
+      <c r="L7" s="2">
+        <v>4.4000000000000004</v>
       </c>
     </row>
     <row r="8" spans="6:16" x14ac:dyDescent="0.25">
-      <c r="F8">
-        <v>67.515600000000006</v>
-      </c>
-      <c r="G8">
-        <v>-90</v>
+      <c r="F8" s="2">
+        <v>80.415599999999998</v>
+      </c>
+      <c r="G8" s="2">
+        <v>90</v>
       </c>
       <c r="I8">
         <f t="shared" si="0"/>
-        <v>71.815600000000003</v>
+        <v>84.815600000000003</v>
       </c>
       <c r="J8">
         <v>90</v>
       </c>
-      <c r="L8">
-        <v>4.3</v>
+      <c r="L8" s="2">
+        <v>4.4000000000000004</v>
       </c>
     </row>
     <row r="9" spans="6:16" x14ac:dyDescent="0.25">
-      <c r="F9">
-        <v>67.695599999999999</v>
-      </c>
-      <c r="G9">
-        <v>90</v>
+      <c r="F9" s="2">
+        <v>80.595600000000005</v>
+      </c>
+      <c r="G9" s="2">
+        <v>-90</v>
       </c>
       <c r="I9">
         <f t="shared" si="0"/>
-        <v>71.995599999999996</v>
+        <v>84.99560000000001</v>
       </c>
       <c r="J9">
         <v>-90</v>
       </c>
-      <c r="L9">
-        <v>4.3</v>
+      <c r="L9" s="2">
+        <v>4.4000000000000004</v>
       </c>
     </row>
     <row r="10" spans="6:16" x14ac:dyDescent="0.25">
-      <c r="F10">
-        <v>67.735600000000005</v>
-      </c>
-      <c r="G10">
-        <v>90</v>
+      <c r="F10" s="2">
+        <v>80.635599999999997</v>
+      </c>
+      <c r="G10" s="2">
+        <v>-90</v>
       </c>
       <c r="I10">
         <f t="shared" si="0"/>
-        <v>72.035600000000002</v>
+        <v>85.035600000000002</v>
       </c>
       <c r="J10">
         <v>-90</v>
       </c>
-      <c r="L10">
-        <v>4.3</v>
+      <c r="L10" s="2">
+        <v>4.4000000000000004</v>
       </c>
     </row>
     <row r="11" spans="6:16" x14ac:dyDescent="0.25">
-      <c r="F11">
-        <v>67.855599999999995</v>
-      </c>
-      <c r="G11">
-        <v>-90</v>
+      <c r="F11" s="2">
+        <v>80.755600000000001</v>
+      </c>
+      <c r="G11" s="2">
+        <v>-270</v>
       </c>
       <c r="I11">
         <f t="shared" si="0"/>
-        <v>72.155599999999993</v>
+        <v>85.155600000000007</v>
       </c>
       <c r="J11">
         <v>-270</v>
       </c>
-      <c r="L11">
-        <v>4.3</v>
+      <c r="L11" s="2">
+        <v>4.4000000000000004</v>
       </c>
     </row>
     <row r="12" spans="6:16" x14ac:dyDescent="0.25">
-      <c r="F12">
-        <v>67.955600000000004</v>
-      </c>
-      <c r="G12">
-        <v>-90</v>
+      <c r="F12" s="2">
+        <v>80.855599999999995</v>
+      </c>
+      <c r="G12" s="2">
+        <v>-270</v>
       </c>
       <c r="I12">
         <f t="shared" si="0"/>
-        <v>72.255600000000001</v>
+        <v>85.255600000000001</v>
       </c>
       <c r="J12">
         <v>-270</v>
       </c>
-      <c r="L12">
-        <v>4.3</v>
+      <c r="L12" s="2">
+        <v>4.4000000000000004</v>
       </c>
     </row>
     <row r="13" spans="6:16" x14ac:dyDescent="0.25">
-      <c r="F13">
-        <v>68.155600000000007</v>
-      </c>
-      <c r="G13">
-        <v>-270</v>
+      <c r="F13" s="2">
+        <v>81.055599999999998</v>
+      </c>
+      <c r="G13" s="2">
+        <v>0</v>
       </c>
       <c r="I13">
         <f t="shared" si="0"/>
-        <v>72.455600000000004</v>
+        <v>85.455600000000004</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
-      <c r="L13">
-        <v>4.3</v>
+      <c r="L13" s="2">
+        <v>4.4000000000000004</v>
       </c>
     </row>
     <row r="14" spans="6:16" x14ac:dyDescent="0.25">
-      <c r="F14">
-        <v>68.2</v>
-      </c>
-      <c r="G14">
-        <v>-270</v>
+      <c r="F14" s="2">
+        <v>81.099999999999994</v>
+      </c>
+      <c r="G14" s="2">
+        <v>-90</v>
       </c>
       <c r="I14">
         <f t="shared" si="0"/>
-        <v>72.5</v>
+        <v>85.5</v>
       </c>
       <c r="J14">
         <v>-90</v>
       </c>
-      <c r="L14">
-        <v>4.3</v>
+      <c r="L14" s="2">
+        <v>4.4000000000000004</v>
       </c>
     </row>
     <row r="15" spans="6:16" x14ac:dyDescent="0.25">
-      <c r="F15">
-        <v>68.319999999999993</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
+      <c r="F15" s="2">
+        <v>81.22</v>
+      </c>
+      <c r="G15" s="2">
+        <v>90</v>
       </c>
       <c r="I15">
         <f t="shared" si="0"/>
-        <v>72.61999999999999</v>
+        <v>85.62</v>
       </c>
       <c r="J15">
         <v>90</v>
       </c>
-      <c r="L15">
-        <v>4.3</v>
+      <c r="L15" s="2">
+        <v>4.4000000000000004</v>
       </c>
     </row>
     <row r="16" spans="6:16" x14ac:dyDescent="0.25">
-      <c r="F16">
-        <v>68.42</v>
-      </c>
-      <c r="G16">
-        <v>-90</v>
+      <c r="F16" s="2">
+        <v>81.319999999999993</v>
+      </c>
+      <c r="G16" s="2">
+        <v>90</v>
       </c>
       <c r="I16">
         <f t="shared" si="0"/>
-        <v>72.72</v>
+        <v>85.72</v>
       </c>
       <c r="J16">
         <v>90</v>
       </c>
-      <c r="L16">
-        <v>4.3</v>
+      <c r="L16" s="2">
+        <v>4.4000000000000004</v>
       </c>
     </row>
     <row r="17" spans="6:12" x14ac:dyDescent="0.25">
-      <c r="F17">
-        <v>68.62</v>
-      </c>
-      <c r="G17">
-        <v>90</v>
+      <c r="F17" s="2">
+        <v>81.52</v>
+      </c>
+      <c r="G17" s="2">
+        <v>-90</v>
       </c>
       <c r="I17">
         <f t="shared" si="0"/>
-        <v>72.92</v>
+        <v>85.92</v>
       </c>
       <c r="J17">
         <v>-90</v>
       </c>
-      <c r="L17">
-        <v>4.3</v>
+      <c r="L17" s="2">
+        <v>4.4000000000000004</v>
       </c>
     </row>
     <row r="18" spans="6:12" x14ac:dyDescent="0.25">
-      <c r="F18">
-        <v>68.67</v>
-      </c>
-      <c r="G18">
-        <v>90</v>
+      <c r="F18" s="2">
+        <v>81.569999999999993</v>
+      </c>
+      <c r="G18" s="2">
+        <v>-90</v>
       </c>
       <c r="I18">
         <f t="shared" si="0"/>
-        <v>72.97</v>
+        <v>85.97</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
-      <c r="L18">
-        <v>4.3</v>
+      <c r="L18" s="2">
+        <v>4.4000000000000004</v>
       </c>
     </row>
   </sheetData>
@@ -1342,7 +1344,7 @@
   <dimension ref="A1:L35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1354,15 +1356,15 @@
       <c r="B1">
         <v>90</v>
       </c>
-      <c r="F1">
-        <v>8.5</v>
-      </c>
-      <c r="G1">
+      <c r="F1" s="1">
+        <v>72.97</v>
+      </c>
+      <c r="G1" s="1">
         <v>90</v>
       </c>
       <c r="I1">
-        <f>SUM(F1-$L1)</f>
-        <v>4.2</v>
+        <f>SUM(F1+$L1)</f>
+        <v>77.27</v>
       </c>
       <c r="J1">
         <v>90</v>
@@ -1378,20 +1380,20 @@
       <c r="B2">
         <v>90</v>
       </c>
-      <c r="F2">
-        <v>69.78</v>
-      </c>
-      <c r="G2">
-        <v>90</v>
-      </c>
-      <c r="I2">
-        <f t="shared" ref="I2:I18" si="0">SUM(F2-$L2)</f>
-        <v>65.48</v>
+      <c r="F2" s="1">
+        <v>74.08</v>
+      </c>
+      <c r="G2" s="1">
+        <v>90</v>
+      </c>
+      <c r="I2" s="1">
+        <f t="shared" ref="I2:I18" si="0">SUM(F2+$L2)</f>
+        <v>78.38</v>
       </c>
       <c r="J2">
         <v>90</v>
       </c>
-      <c r="L2">
+      <c r="L2" s="1">
         <v>4.3</v>
       </c>
     </row>
@@ -1402,20 +1404,20 @@
       <c r="B3">
         <v>-270</v>
       </c>
-      <c r="F3">
-        <v>69.89</v>
-      </c>
-      <c r="G3">
-        <v>-270</v>
-      </c>
-      <c r="I3">
-        <f t="shared" si="0"/>
-        <v>65.59</v>
+      <c r="F3" s="1">
+        <v>74.19</v>
+      </c>
+      <c r="G3" s="1">
+        <v>-270</v>
+      </c>
+      <c r="I3" s="1">
+        <f t="shared" si="0"/>
+        <v>78.489999999999995</v>
       </c>
       <c r="J3">
         <v>-270</v>
       </c>
-      <c r="L3">
+      <c r="L3" s="1">
         <v>4.3</v>
       </c>
     </row>
@@ -1426,20 +1428,20 @@
       <c r="B4">
         <v>-270</v>
       </c>
-      <c r="F4">
-        <v>70.52</v>
-      </c>
-      <c r="G4">
-        <v>-270</v>
-      </c>
-      <c r="I4">
-        <f t="shared" si="0"/>
-        <v>66.22</v>
+      <c r="F4" s="1">
+        <v>74.819999999999993</v>
+      </c>
+      <c r="G4" s="1">
+        <v>-270</v>
+      </c>
+      <c r="I4" s="1">
+        <f t="shared" si="0"/>
+        <v>79.11999999999999</v>
       </c>
       <c r="J4">
         <v>-270</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="1">
         <v>4.3</v>
       </c>
     </row>
@@ -1450,20 +1452,20 @@
       <c r="B5">
         <v>-90</v>
       </c>
-      <c r="F5">
-        <v>70.7</v>
-      </c>
-      <c r="G5">
-        <v>-90</v>
-      </c>
-      <c r="I5">
-        <f t="shared" si="0"/>
-        <v>66.400000000000006</v>
+      <c r="F5" s="1">
+        <v>75</v>
+      </c>
+      <c r="G5" s="1">
+        <v>-90</v>
+      </c>
+      <c r="I5" s="1">
+        <f t="shared" si="0"/>
+        <v>79.3</v>
       </c>
       <c r="J5">
         <v>-90</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="1">
         <v>4.3</v>
       </c>
     </row>
@@ -1474,20 +1476,20 @@
       <c r="B6">
         <v>-90</v>
       </c>
-      <c r="F6">
-        <v>70.739999999999995</v>
-      </c>
-      <c r="G6">
-        <v>-90</v>
-      </c>
-      <c r="I6">
-        <f t="shared" si="0"/>
-        <v>66.44</v>
+      <c r="F6" s="1">
+        <v>75.040000000000006</v>
+      </c>
+      <c r="G6" s="1">
+        <v>-90</v>
+      </c>
+      <c r="I6" s="1">
+        <f t="shared" si="0"/>
+        <v>79.34</v>
       </c>
       <c r="J6">
         <v>-90</v>
       </c>
-      <c r="L6">
+      <c r="L6" s="1">
         <v>4.3</v>
       </c>
     </row>
@@ -1498,20 +1500,20 @@
       <c r="B7">
         <v>90</v>
       </c>
-      <c r="F7">
-        <v>70.989999999999995</v>
-      </c>
-      <c r="G7">
-        <v>90</v>
-      </c>
-      <c r="I7">
-        <f t="shared" si="0"/>
-        <v>66.69</v>
+      <c r="F7" s="1">
+        <v>75.290000000000006</v>
+      </c>
+      <c r="G7" s="1">
+        <v>90</v>
+      </c>
+      <c r="I7" s="1">
+        <f t="shared" si="0"/>
+        <v>79.59</v>
       </c>
       <c r="J7">
         <v>90</v>
       </c>
-      <c r="L7">
+      <c r="L7" s="1">
         <v>4.3</v>
       </c>
     </row>
@@ -1522,20 +1524,20 @@
       <c r="B8">
         <v>90</v>
       </c>
-      <c r="F8">
-        <v>71.815600000000003</v>
-      </c>
-      <c r="G8">
-        <v>90</v>
-      </c>
-      <c r="I8">
-        <f t="shared" si="0"/>
-        <v>67.515600000000006</v>
+      <c r="F8" s="1">
+        <v>76.115600000000001</v>
+      </c>
+      <c r="G8" s="1">
+        <v>90</v>
+      </c>
+      <c r="I8" s="1">
+        <f t="shared" si="0"/>
+        <v>80.415599999999998</v>
       </c>
       <c r="J8">
         <v>90</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="1">
         <v>4.3</v>
       </c>
     </row>
@@ -1546,20 +1548,20 @@
       <c r="B9">
         <v>-90</v>
       </c>
-      <c r="F9">
-        <v>71.995599999999996</v>
-      </c>
-      <c r="G9">
-        <v>-90</v>
-      </c>
-      <c r="I9">
-        <f t="shared" si="0"/>
-        <v>67.695599999999999</v>
+      <c r="F9" s="1">
+        <v>76.295599999999993</v>
+      </c>
+      <c r="G9" s="1">
+        <v>-90</v>
+      </c>
+      <c r="I9" s="1">
+        <f t="shared" si="0"/>
+        <v>80.59559999999999</v>
       </c>
       <c r="J9">
         <v>-90</v>
       </c>
-      <c r="L9">
+      <c r="L9" s="1">
         <v>4.3</v>
       </c>
     </row>
@@ -1570,20 +1572,20 @@
       <c r="B10">
         <v>-90</v>
       </c>
-      <c r="F10">
-        <v>72.035600000000002</v>
-      </c>
-      <c r="G10">
-        <v>-90</v>
-      </c>
-      <c r="I10">
-        <f t="shared" si="0"/>
-        <v>67.735600000000005</v>
+      <c r="F10" s="1">
+        <v>76.335599999999999</v>
+      </c>
+      <c r="G10" s="1">
+        <v>-90</v>
+      </c>
+      <c r="I10" s="1">
+        <f t="shared" si="0"/>
+        <v>80.635599999999997</v>
       </c>
       <c r="J10">
         <v>-90</v>
       </c>
-      <c r="L10">
+      <c r="L10" s="1">
         <v>4.3</v>
       </c>
     </row>
@@ -1594,20 +1596,20 @@
       <c r="B11">
         <v>-270</v>
       </c>
-      <c r="F11">
-        <v>72.155600000000007</v>
-      </c>
-      <c r="G11">
-        <v>-270</v>
-      </c>
-      <c r="I11">
-        <f t="shared" si="0"/>
-        <v>67.85560000000001</v>
+      <c r="F11" s="1">
+        <v>76.455600000000004</v>
+      </c>
+      <c r="G11" s="1">
+        <v>-270</v>
+      </c>
+      <c r="I11" s="1">
+        <f t="shared" si="0"/>
+        <v>80.755600000000001</v>
       </c>
       <c r="J11">
         <v>-270</v>
       </c>
-      <c r="L11">
+      <c r="L11" s="1">
         <v>4.3</v>
       </c>
     </row>
@@ -1618,20 +1620,20 @@
       <c r="B12">
         <v>-270</v>
       </c>
-      <c r="F12">
-        <v>72.255600000000001</v>
-      </c>
-      <c r="G12">
-        <v>-270</v>
-      </c>
-      <c r="I12">
-        <f t="shared" si="0"/>
-        <v>67.955600000000004</v>
+      <c r="F12" s="1">
+        <v>76.555599999999998</v>
+      </c>
+      <c r="G12" s="1">
+        <v>-270</v>
+      </c>
+      <c r="I12" s="1">
+        <f t="shared" si="0"/>
+        <v>80.855599999999995</v>
       </c>
       <c r="J12">
         <v>-270</v>
       </c>
-      <c r="L12">
+      <c r="L12" s="1">
         <v>4.3</v>
       </c>
     </row>
@@ -1642,20 +1644,20 @@
       <c r="B13">
         <v>0</v>
       </c>
-      <c r="F13">
-        <v>72.455600000000004</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <f t="shared" si="0"/>
-        <v>68.155600000000007</v>
+      <c r="F13" s="1">
+        <v>76.755600000000001</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0</v>
+      </c>
+      <c r="I13" s="1">
+        <f t="shared" si="0"/>
+        <v>81.055599999999998</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
-      <c r="L13">
+      <c r="L13" s="1">
         <v>4.3</v>
       </c>
     </row>
@@ -1666,20 +1668,20 @@
       <c r="B14">
         <v>-90</v>
       </c>
-      <c r="F14">
-        <v>72.5</v>
-      </c>
-      <c r="G14">
-        <v>-90</v>
-      </c>
-      <c r="I14">
-        <f t="shared" si="0"/>
-        <v>68.2</v>
+      <c r="F14" s="1">
+        <v>76.8</v>
+      </c>
+      <c r="G14" s="1">
+        <v>-90</v>
+      </c>
+      <c r="I14" s="1">
+        <f t="shared" si="0"/>
+        <v>81.099999999999994</v>
       </c>
       <c r="J14">
         <v>-90</v>
       </c>
-      <c r="L14">
+      <c r="L14" s="1">
         <v>4.3</v>
       </c>
     </row>
@@ -1690,20 +1692,20 @@
       <c r="B15">
         <v>90</v>
       </c>
-      <c r="F15">
-        <v>72.62</v>
-      </c>
-      <c r="G15">
-        <v>90</v>
-      </c>
-      <c r="I15">
-        <f t="shared" si="0"/>
-        <v>68.320000000000007</v>
+      <c r="F15" s="1">
+        <v>76.92</v>
+      </c>
+      <c r="G15" s="1">
+        <v>90</v>
+      </c>
+      <c r="I15" s="1">
+        <f t="shared" si="0"/>
+        <v>81.22</v>
       </c>
       <c r="J15">
         <v>90</v>
       </c>
-      <c r="L15">
+      <c r="L15" s="1">
         <v>4.3</v>
       </c>
     </row>
@@ -1714,20 +1716,20 @@
       <c r="B16">
         <v>90</v>
       </c>
-      <c r="F16">
-        <v>72.72</v>
-      </c>
-      <c r="G16">
-        <v>90</v>
-      </c>
-      <c r="I16">
-        <f t="shared" si="0"/>
-        <v>68.42</v>
+      <c r="F16" s="1">
+        <v>77.02</v>
+      </c>
+      <c r="G16" s="1">
+        <v>90</v>
+      </c>
+      <c r="I16" s="1">
+        <f t="shared" si="0"/>
+        <v>81.319999999999993</v>
       </c>
       <c r="J16">
         <v>90</v>
       </c>
-      <c r="L16">
+      <c r="L16" s="1">
         <v>4.3</v>
       </c>
     </row>
@@ -1738,20 +1740,20 @@
       <c r="B17">
         <v>-90</v>
       </c>
-      <c r="F17">
-        <v>72.92</v>
-      </c>
-      <c r="G17">
-        <v>-90</v>
-      </c>
-      <c r="I17">
-        <f t="shared" si="0"/>
-        <v>68.62</v>
+      <c r="F17" s="1">
+        <v>77.22</v>
+      </c>
+      <c r="G17" s="1">
+        <v>-90</v>
+      </c>
+      <c r="I17" s="1">
+        <f t="shared" si="0"/>
+        <v>81.52</v>
       </c>
       <c r="J17">
         <v>-90</v>
       </c>
-      <c r="L17">
+      <c r="L17" s="1">
         <v>4.3</v>
       </c>
     </row>
@@ -1762,20 +1764,20 @@
       <c r="B18">
         <v>0</v>
       </c>
-      <c r="F18">
-        <v>72.97</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <f t="shared" si="0"/>
-        <v>68.67</v>
+      <c r="F18" s="1">
+        <v>77.27</v>
+      </c>
+      <c r="G18" s="1">
+        <v>90</v>
+      </c>
+      <c r="I18" s="1">
+        <f t="shared" si="0"/>
+        <v>81.569999999999993</v>
       </c>
       <c r="J18">
-        <v>0</v>
-      </c>
-      <c r="L18">
+        <v>90</v>
+      </c>
+      <c r="L18" s="1">
         <v>4.3</v>
       </c>
     </row>
